--- a/output/below_50/tRNA-Leu-TAA-3-1.xlsx
+++ b/output/below_50/tRNA-Leu-TAA-3-1.xlsx
@@ -12,186 +12,198 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="64">
   <si>
     <t>chr11</t>
   </si>
   <si>
-    <t>59319228</t>
-  </si>
-  <si>
-    <t>59319251</t>
-  </si>
-  <si>
-    <t>41</t>
+    <t>59318699</t>
+  </si>
+  <si>
+    <t>59318722</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>59318702</t>
+  </si>
+  <si>
+    <t>80,80,80</t>
+  </si>
+  <si>
+    <t>255,0,0</t>
+  </si>
+  <si>
+    <t>TTTCTTTCCACAAGTAAGTG</t>
+  </si>
+  <si>
+    <t>TGG</t>
+  </si>
+  <si>
+    <t>78% (59)</t>
+  </si>
+  <si>
+    <t>10% (22)</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 49, Doench 2016: 78%, Moreno-Mateos: 10%</t>
+  </si>
+  <si>
+    <t>2.6995E+11</t>
+  </si>
+  <si>
+    <t>59318773</t>
+  </si>
+  <si>
+    <t>59318796</t>
+  </si>
+  <si>
+    <t>0</t>
   </si>
   <si>
     <t>+</t>
   </si>
   <si>
-    <t>59319248</t>
-  </si>
-  <si>
-    <t>80,80,80</t>
-  </si>
-  <si>
-    <t>255,0,0</t>
-  </si>
-  <si>
-    <t>CCAGAATGGCCGAGTGGTTA</t>
+    <t>59318793</t>
+  </si>
+  <si>
+    <t>150,150,150</t>
+  </si>
+  <si>
+    <t>TGGCGCAATGGATAGCGCAT</t>
+  </si>
+  <si>
+    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+  </si>
+  <si>
+    <t>75% (58)</t>
+  </si>
+  <si>
+    <t>69% (54)</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>Sequence is not unique in genome</t>
+  </si>
+  <si>
+    <t>59318802</t>
+  </si>
+  <si>
+    <t>59318825</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>59318822</t>
+  </si>
+  <si>
+    <t>AGATAGTTAGAGAAATTCAA</t>
   </si>
   <si>
     <t>AGG</t>
   </si>
   <si>
-    <t>18% (37)</t>
-  </si>
-  <si>
-    <t>72% (56)</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 41, Doench 2016: 18%, Moreno-Mateos: 72%</t>
-  </si>
-  <si>
-    <t>3.87939E+11</t>
-  </si>
-  <si>
-    <t>59319234</t>
-  </si>
-  <si>
-    <t>59319257</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>59319254</t>
-  </si>
-  <si>
-    <t>150,150,150</t>
-  </si>
-  <si>
-    <t>TGGCCGAGTGGTTAAGGCGT</t>
-  </si>
-  <si>
-    <t>TGG</t>
-  </si>
-  <si>
-    <t>This guide sequence is not unique in the genome. The specificity scores were not determined.</t>
+    <t>72% (57)</t>
+  </si>
+  <si>
+    <t>39% (40)</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 43, Doench 2016: 72%, Moreno-Mateos: 39%</t>
+  </si>
+  <si>
+    <t>2.624E+11</t>
+  </si>
+  <si>
+    <t>59318808</t>
+  </si>
+  <si>
+    <t>59318831</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>59318828</t>
+  </si>
+  <si>
+    <t>TTAGAGAAATTCAAAGGTTG</t>
+  </si>
+  <si>
+    <t>27% (42)</t>
+  </si>
+  <si>
+    <t>41% (41)</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 47, Doench 2016: 27%, Moreno-Mateos: 41%</t>
+  </si>
+  <si>
+    <t>2.13153E+11</t>
+  </si>
+  <si>
+    <t>59318809</t>
+  </si>
+  <si>
+    <t>59318832</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>59318829</t>
+  </si>
+  <si>
+    <t>TAGAGAAATTCAAAGGTTGT</t>
+  </si>
+  <si>
+    <t>GGG</t>
   </si>
   <si>
     <t>56% (52)</t>
   </si>
   <si>
-    <t>79% (60)</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>Sequence is not unique in genome</t>
-  </si>
-  <si>
-    <t>59319237</t>
-  </si>
-  <si>
-    <t>59319260</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>59319240</t>
-  </si>
-  <si>
-    <t>AGTCCAACGCCTTAACCACT</t>
-  </si>
-  <si>
-    <t>CGG</t>
-  </si>
-  <si>
-    <t>78% (59)</t>
-  </si>
-  <si>
-    <t>10% (22)</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>59319281</t>
-  </si>
-  <si>
-    <t>59319304</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>59319284</t>
-  </si>
-  <si>
-    <t>AAGTGGGGTTCGAACCCACG</t>
-  </si>
-  <si>
-    <t>100% (75)</t>
-  </si>
-  <si>
-    <t>98% (84)</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 31, Doench 2016: 100%, Moreno-Mateos: 98%</t>
-  </si>
-  <si>
-    <t>3.33891E+11</t>
-  </si>
-  <si>
-    <t>59319285</t>
-  </si>
-  <si>
-    <t>59319308</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>59319305</t>
-  </si>
-  <si>
-    <t>GTGGGTTCGAACCCCACTTC</t>
-  </si>
-  <si>
-    <t>23% (40)</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>MIT Spec. Score: 23, Doench 2016: 23%, Moreno-Mateos: 72%</t>
-  </si>
-  <si>
-    <t>1.36997E+11</t>
+    <t>23% (32)</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>MIT Spec. Score: 40, Doench 2016: 56%, Moreno-Mateos: 23%</t>
+  </si>
+  <si>
+    <t>1.76164E+11</t>
   </si>
 </sst>
 </file>
@@ -259,10 +271,10 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
@@ -315,28 +327,28 @@
         <v>18</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="M2" t="s">
         <v>23</v>
@@ -371,22 +383,22 @@
         <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" t="s">
         <v>32</v>
       </c>
-      <c r="G3" t="s">
-        <v>30</v>
-      </c>
       <c r="H3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="I3" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="J3" t="s">
         <v>7</v>
@@ -398,7 +410,7 @@
         <v>34</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="N3" t="s">
         <v>35</v>
@@ -413,10 +425,10 @@
         <v>38</v>
       </c>
       <c r="R3" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4">
@@ -424,22 +436,22 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
         <v>41</v>
       </c>
-      <c r="E4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F4" t="s">
-        <v>42</v>
-      </c>
       <c r="G4" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
         <v>6</v>
@@ -451,31 +463,31 @@
         <v>7</v>
       </c>
       <c r="K4" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M4" t="s">
         <v>43</v>
       </c>
-      <c r="L4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="Q4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="R4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="S4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -483,22 +495,22 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
         <v>52</v>
       </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
       <c r="G5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H5" t="s">
         <v>6</v>
@@ -510,31 +522,31 @@
         <v>7</v>
       </c>
       <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" t="s">
         <v>54</v>
       </c>
-      <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>52</v>
-      </c>
       <c r="N5" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="P5" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="Q5" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="R5" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="S5" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
